--- a/Bdd/Excel Tableau/Dictionnaire de données tableau 2.xlsx
+++ b/Bdd/Excel Tableau/Dictionnaire de données tableau 2.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
   <si>
     <t>Dictionnaire de Données</t>
   </si>
@@ -84,6 +84,39 @@
   </si>
   <si>
     <t>Taux Annuel</t>
+  </si>
+  <si>
+    <t>NomEmprunt</t>
+  </si>
+  <si>
+    <t>Nom de l'entreprise dont on a accepté le crédit</t>
+  </si>
+  <si>
+    <t>Varchar</t>
+  </si>
+  <si>
+    <t>CapRem</t>
+  </si>
+  <si>
+    <t>Capital Rembourses</t>
+  </si>
+  <si>
+    <t>IntCum</t>
+  </si>
+  <si>
+    <t>Interêts Cumulés</t>
+  </si>
+  <si>
+    <t>Annu</t>
+  </si>
+  <si>
+    <t>Annuités</t>
+  </si>
+  <si>
+    <t>DateCred</t>
+  </si>
+  <si>
+    <t>Date de Credit</t>
   </si>
 </sst>
 </file>
@@ -115,7 +148,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -155,6 +188,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -217,11 +256,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -231,25 +289,19 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -533,18 +585,18 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="58" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="11"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -561,218 +613,250 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6" t="s">
+      <c r="A7" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6" t="s">
+      <c r="A8" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6" t="s">
+      <c r="A9" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
+      <c r="A10" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
+      <c r="A11" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
-      <c r="B26" s="8" t="s">
+      <c r="A26" s="4"/>
+      <c r="B26" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="9"/>
-      <c r="B27" s="8" t="s">
+      <c r="A27" s="6"/>
+      <c r="B27" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="10"/>
-      <c r="B28" s="8" t="s">
+      <c r="A28" s="7"/>
+      <c r="B28" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="11"/>
-      <c r="B29" s="5" t="s">
+      <c r="A29" s="8"/>
+      <c r="B29" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
